--- a/data/qiime_mapping.xlsx
+++ b/data/qiime_mapping.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/jeh6121_psu_edu/Documents/Documents/github/BONCAT_gradients/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\OneDrive - The Pennsylvania State University\Documents\github\BONCAT_gradients\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104877511D57325ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEFF6A25-0B48-4386-AA17-3440EB0FF55B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03706C33-29D4-4BE7-A43B-1B9008DB98FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="18900" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>#SampleID</t>
   </si>
@@ -150,84 +150,9 @@
     <t>C7R-SYBR_S19</t>
   </si>
   <si>
-    <t>CR01_S36</t>
-  </si>
-  <si>
-    <t>CR02_S37</t>
-  </si>
-  <si>
-    <t>CR03_S38</t>
-  </si>
-  <si>
-    <t>CR04_S39</t>
-  </si>
-  <si>
-    <t>CR05_S40</t>
-  </si>
-  <si>
-    <t>CR06_S41</t>
-  </si>
-  <si>
-    <t>CR07_S42</t>
-  </si>
-  <si>
-    <t>CR08_S43</t>
-  </si>
-  <si>
-    <t>CR09_S44</t>
-  </si>
-  <si>
-    <t>CR10_S45</t>
-  </si>
-  <si>
-    <t>CR11_S46</t>
-  </si>
-  <si>
-    <t>CR12_S47</t>
-  </si>
-  <si>
-    <t>CR13_S48</t>
-  </si>
-  <si>
-    <t>CR14_S49</t>
-  </si>
-  <si>
-    <t>CR15_S50</t>
-  </si>
-  <si>
-    <t>CR16_S51</t>
-  </si>
-  <si>
-    <t>CR17_S52</t>
-  </si>
-  <si>
-    <t>CR18_S53</t>
-  </si>
-  <si>
-    <t>CR19_S54</t>
-  </si>
-  <si>
-    <t>CR20_S55</t>
-  </si>
-  <si>
-    <t>CR21_S56</t>
-  </si>
-  <si>
-    <t>CR22_S57</t>
-  </si>
-  <si>
-    <t>CR23_S58</t>
-  </si>
-  <si>
-    <t>CR24_S59</t>
-  </si>
-  <si>
     <t>CTL_S66</t>
   </si>
   <si>
-    <t>ExtractionBlank_S35</t>
-  </si>
-  <si>
     <t>S10-DNA_S9</t>
   </si>
   <si>
@@ -462,160 +387,10 @@
     <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/C7R-SYBR_S19_L001_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR01_S36_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR01_S36_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR02_S37_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR02_S37_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR03_S38_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR03_S38_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR04_S39_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR04_S39_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR05_S40_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR05_S40_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR06_S41_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR06_S41_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR07_S42_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR07_S42_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR08_S43_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR08_S43_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR09_S44_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR09_S44_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR10_S45_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR10_S45_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR11_S46_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR11_S46_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR12_S47_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR12_S47_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR13_S48_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR13_S48_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR14_S49_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR14_S49_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR15_S50_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR15_S50_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR16_S51_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR16_S51_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR17_S52_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR17_S52_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR18_S53_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR18_S53_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR19_S54_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR19_S54_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR20_S55_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR20_S55_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR21_S56_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR21_S56_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR22_S57_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR22_S57_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR23_S58_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR23_S58_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR24_S59_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CR24_S59_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CTL_S66_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/CTL_S66_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/ExtractionBlank_S35_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/ExtractionBlank_S35_L001_R2_001.fastq.gz</t>
   </si>
   <si>
     <t>/gpfs/group/ltb5167/default/JennHarris/BONCAT_16S/BONCAT_16S_seqs/S10-DNA_S9_L001_R1_001.fastq.gz</t>
@@ -723,10 +498,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,19 +763,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="107.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,741 +786,466 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/qiime_mapping.xlsx
+++ b/data/qiime_mapping.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\OneDrive - The Pennsylvania State University\Documents\github\BONCAT_gradients\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/jeh6121_psu_edu/Documents/Documents/Github/BONCAT_gradients/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03706C33-29D4-4BE7-A43B-1B9008DB98FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{03706C33-29D4-4BE7-A43B-1B9008DB98FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3821FA5-C2E7-4F16-9EE0-3FB53E20086D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$110</definedName>
@@ -765,17 +766,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="107.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -797,7 +798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -808,7 +809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -819,7 +820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -830,7 +831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -841,7 +842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -852,7 +853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -863,7 +864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -874,7 +875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -885,7 +886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -896,7 +897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -907,7 +908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -918,7 +919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -929,7 +930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -940,7 +941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -951,7 +952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -962,7 +963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -973,7 +974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -984,7 +985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -995,7 +996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1251,4 +1252,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F86D8BE-FC35-4FC5-A13B-501198C8C5C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>